--- a/TestCase.Estimating/Task.Estimating.xlsx
+++ b/TestCase.Estimating/Task.Estimating.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDF1AD2-B59A-4E3B-AC0E-3D89A21A976A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="14640" windowHeight="5025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>Launching Tesla into space</t>
   </si>
@@ -96,9 +95,6 @@
     <t>1 year</t>
   </si>
   <si>
-    <t>9 month</t>
-  </si>
-  <si>
     <t>2 houers</t>
   </si>
   <si>
@@ -129,53 +125,16 @@
     <t>7 days</t>
   </si>
   <si>
-    <t>2 moth and 20 days</t>
-  </si>
-  <si>
     <t>2 weeks</t>
   </si>
   <si>
     <t>№</t>
   </si>
   <si>
-    <t>1 month</t>
-  </si>
-  <si>
     <t>2 months</t>
   </si>
   <si>
-    <t>1 yeat 2 months</t>
-  </si>
-  <si>
     <t>7 months</t>
-  </si>
-  <si>
-    <t>2 month 2 weeks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.  Планирование и анализ требований. </t>
-  </si>
-  <si>
-    <t>2.  Определение критериев для начала и завершения тестирования.</t>
-  </si>
-  <si>
-    <t>3.  Определение тестовых стратегий.</t>
-  </si>
-  <si>
-    <t>4.  Тестирование (составление и выполнение тест-кейсов)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.  Фиксация  дефектов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.  Анализ результатов и отчетность </t>
-  </si>
-  <si>
-    <t>7.  Обновить конечные результаты по тест-кейсам после сдачи проекта.</t>
-  </si>
-  <si>
-    <t>Давайте предположим, что Вам нужно запланировать активности по тестированию на целый проект. 
-Выпишите список того, что вы планируете делать и в какой последовательности.</t>
   </si>
   <si>
     <t>Regression</t>
@@ -254,12 +213,57 @@
   </si>
   <si>
     <t>1,9%</t>
+  </si>
+  <si>
+    <t>Requirements planning and analysis.</t>
+  </si>
+  <si>
+    <t>Define the criteria for starting and ending testing.</t>
+  </si>
+  <si>
+    <t>Defining testing strategies.</t>
+  </si>
+  <si>
+    <t>Testing (compilation and execution of test cases)</t>
+  </si>
+  <si>
+    <t>Fixation of defects</t>
+  </si>
+  <si>
+    <t>Analysis of results and reporting</t>
+  </si>
+  <si>
+    <t>Update the final results for the test cases after ending the project.</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>1 year 2 months</t>
+  </si>
+  <si>
+    <t>9 months</t>
+  </si>
+  <si>
+    <t>2 moths and 20 days</t>
+  </si>
+  <si>
+    <t>2 months 2 weeks</t>
+  </si>
+  <si>
+    <t>1 months</t>
+  </si>
+  <si>
+    <t>Three-point estimation</t>
+  </si>
+  <si>
+    <t>(7 + 4 * 10 + 14)/6=10 years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -420,18 +424,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -443,46 +441,53 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -814,11 +819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,282 +834,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2.1</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>3</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>3.2</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>3.4</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>4</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>5</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>6.1</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>6.2</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>6.3</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>6.4</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>7</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="7" t="s">
-        <v>30</v>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1118,56 +1131,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6B0096-63EA-4170-B8B5-9C49A39E8370}">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="139" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>49</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1176,10 +1214,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C4BB8D-D7F7-4955-8F41-EAF18BE81303}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -1189,246 +1227,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
+      <c r="A1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>207</v>
+      </c>
+      <c r="B3" s="15">
+        <v>196</v>
+      </c>
+      <c r="C3" s="15">
+        <v>68</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.26</v>
+      </c>
+      <c r="E3" s="17">
+        <v>23</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="G3" s="15">
+        <v>7</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="15">
+        <v>13</v>
+      </c>
+      <c r="J3" s="15">
+        <v>14</v>
+      </c>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>207</v>
-      </c>
-      <c r="B3" s="22">
-        <v>196</v>
-      </c>
-      <c r="C3" s="22">
-        <v>68</v>
-      </c>
-      <c r="D3" s="23">
-        <v>0.26</v>
-      </c>
-      <c r="E3" s="24">
-        <v>23</v>
-      </c>
-      <c r="F3" s="23">
-        <v>0.12</v>
-      </c>
-      <c r="G3" s="22">
-        <v>7</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="22">
-        <v>13</v>
-      </c>
-      <c r="J3" s="22">
-        <v>14</v>
-      </c>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="11"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>154</v>
+      </c>
+      <c r="B8" s="15">
+        <v>121</v>
+      </c>
+      <c r="C8" s="15">
+        <v>30</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="E8" s="17">
+        <v>14</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="G8" s="15">
+        <v>8</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>154</v>
-      </c>
-      <c r="B8" s="22">
-        <v>121</v>
-      </c>
-      <c r="C8" s="22">
-        <v>30</v>
-      </c>
-      <c r="D8" s="23">
-        <v>0.19</v>
-      </c>
-      <c r="E8" s="24">
-        <v>14</v>
-      </c>
-      <c r="F8" s="23">
-        <v>0.11</v>
-      </c>
-      <c r="G8" s="22">
-        <v>8</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="22">
+      <c r="I8" s="15">
         <v>6</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase.Estimating/Task.Estimating.xlsx
+++ b/TestCase.Estimating/Task.Estimating.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837F6934-681E-47ED-8D90-3711660DB8DF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="14640" windowHeight="5025" activeTab="2"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="14640" windowHeight="5025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
   <si>
     <t>Launching Tesla into space</t>
   </si>
@@ -258,12 +259,30 @@
   </si>
   <si>
     <t>(7 + 4 * 10 + 14)/6=10 years</t>
+  </si>
+  <si>
+    <t>исправить вре. В одной единице</t>
+  </si>
+  <si>
+    <t xml:space="preserve">розширить стадии.Выбор методологии и тд. </t>
+  </si>
+  <si>
+    <t>тестовые активности</t>
+  </si>
+  <si>
+    <t>описать результаты рассчетов</t>
+  </si>
+  <si>
+    <t>построить графики</t>
+  </si>
+  <si>
+    <t>dashboard в джире</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,6 +377,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +449,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -467,28 +492,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -819,11 +846,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,11 +864,11 @@
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -1116,8 +1143,13 @@
       <c r="B27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="18" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1131,11 +1163,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,10 +1177,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="19" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1206,6 +1238,16 @@
       </c>
       <c r="B8" s="1" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1214,11 +1256,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,18 +1269,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1325,18 +1367,18 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1424,49 +1466,64 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="27" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase.Estimating/Task.Estimating.xlsx
+++ b/TestCase.Estimating/Task.Estimating.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="14640" windowHeight="5025" activeTab="2"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="14640" windowHeight="5025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2760,59 +2760,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2836,6 +2783,59 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2978,7 +2978,7 @@
                   <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>23</c:v>
@@ -3381,7 +3381,7 @@
                   <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>68</c:v>
@@ -3783,7 +3783,7 @@
                   <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
@@ -4099,7 +4099,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4179,7 +4178,7 @@
                   <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>196</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
@@ -4306,7 +4305,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4577,7 +4575,7 @@
                   <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>30</c:v>
@@ -4975,7 +4973,7 @@
                   <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14</c:v>
@@ -5372,7 +5370,7 @@
                   <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
@@ -5688,7 +5686,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5768,7 +5765,7 @@
                   <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>121</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6</c:v>
@@ -5895,7 +5892,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11018,18 +11014,18 @@
       <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
@@ -11044,7 +11040,7 @@
       <c r="A3" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -11059,7 +11055,7 @@
       <c r="A4" s="22">
         <v>1.2</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
@@ -11074,7 +11070,7 @@
       <c r="A5" s="22">
         <v>1.3</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
@@ -11089,7 +11085,7 @@
       <c r="A6" s="22">
         <v>1.4</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -11104,7 +11100,7 @@
       <c r="A7" s="22">
         <v>2</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2"/>
@@ -11119,7 +11115,7 @@
       <c r="A8" s="22">
         <v>2.1</v>
       </c>
-      <c r="B8" s="27"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -11134,7 +11130,7 @@
       <c r="A9" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -11149,7 +11145,7 @@
       <c r="A10" s="22">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
@@ -11164,7 +11160,7 @@
       <c r="A11" s="22">
         <v>3</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2"/>
@@ -11179,7 +11175,7 @@
       <c r="A12" s="22">
         <v>3.1</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
@@ -11194,7 +11190,7 @@
       <c r="A13" s="22">
         <v>3.2</v>
       </c>
-      <c r="B13" s="27"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
@@ -11209,7 +11205,7 @@
       <c r="A14" s="22">
         <v>3.3</v>
       </c>
-      <c r="B14" s="27"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
@@ -11224,7 +11220,7 @@
       <c r="A15" s="22">
         <v>3.4</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
@@ -11269,7 +11265,7 @@
       <c r="A18" s="22">
         <v>6</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2"/>
@@ -11284,7 +11280,7 @@
       <c r="A19" s="22">
         <v>6.1</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
@@ -11299,7 +11295,7 @@
       <c r="A20" s="22">
         <v>6.2</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
@@ -11314,7 +11310,7 @@
       <c r="A21" s="22">
         <v>6.3</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
@@ -11329,7 +11325,7 @@
       <c r="A22" s="22">
         <v>6.4</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
@@ -11400,112 +11396,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="28" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75">
-      <c r="A2" s="49">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="18.75">
-      <c r="A3" s="49">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="18.75">
-      <c r="A4" s="49">
+      <c r="A4" s="30">
         <v>2.1</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="18.75">
-      <c r="A5" s="49">
+      <c r="A5" s="30">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="18.75">
-      <c r="A6" s="49">
+      <c r="A6" s="30">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="45"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="18.75">
-      <c r="A7" s="49">
+      <c r="A7" s="30">
         <v>2.4</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="18.75">
-      <c r="A8" s="49">
+      <c r="A8" s="30">
         <v>3</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="18.75">
-      <c r="A9" s="49">
+      <c r="A9" s="30">
         <v>4</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="18.75">
-      <c r="A10" s="49">
+      <c r="A10" s="30">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="18.75">
-      <c r="A11" s="49">
+      <c r="A11" s="30">
         <v>4.2</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="18.75">
-      <c r="A12" s="49">
+      <c r="A12" s="30">
         <v>4.3</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="29" t="s">
         <v>119</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="45"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
@@ -11514,133 +11510,133 @@
       <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:10" ht="18.75">
-      <c r="A13" s="49">
+      <c r="A13" s="30">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="18.75">
-      <c r="A14" s="49">
+      <c r="A14" s="30">
         <v>5</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="18.75">
-      <c r="A15" s="49">
+      <c r="A15" s="30">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="45"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" spans="1:10" ht="18.75">
-      <c r="A16" s="49">
+      <c r="A16" s="30">
         <v>5.2</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="45"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:4" ht="18.75">
-      <c r="A17" s="49">
+      <c r="A17" s="30">
         <v>5.3</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="45"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" ht="18.75">
-      <c r="A18" s="49">
+      <c r="A18" s="30">
         <v>5.4</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="45"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" ht="18.75">
-      <c r="A19" s="49">
+      <c r="A19" s="30">
         <v>5.5</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="45"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="18.75">
-      <c r="A20" s="49">
+      <c r="A20" s="30">
         <v>5.6</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="45"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="18.75">
-      <c r="A21" s="49">
+      <c r="A21" s="30">
         <v>6</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" ht="18.75">
-      <c r="A22" s="49">
+      <c r="A22" s="30">
         <v>7</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="44"/>
+      <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
-      <c r="A23" s="49">
+      <c r="A23" s="30">
         <v>7.1</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="26"/>
     </row>
     <row r="24" spans="1:4" ht="18.75">
-      <c r="A24" s="49">
+      <c r="A24" s="30">
         <v>7.2</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="45"/>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" spans="1:4" ht="18.75">
-      <c r="A25" s="49">
+      <c r="A25" s="30">
         <v>7.3</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="44"/>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:4" ht="18.75">
-      <c r="A26" s="49">
+      <c r="A26" s="30">
         <v>7.4</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="44"/>
+      <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" ht="18">
-      <c r="D27" s="45"/>
+      <c r="D27" s="26"/>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1"/>
   </sheetData>
@@ -11654,7 +11650,7 @@
   <dimension ref="A1:AN32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11671,18 +11667,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:40" ht="30">
       <c r="A2" s="1" t="s">
@@ -11721,7 +11717,7 @@
         <v>207</v>
       </c>
       <c r="B3" s="9">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="C3" s="9">
         <v>68</v>
@@ -11765,18 +11761,18 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:40" ht="30">
@@ -11816,7 +11812,7 @@
         <v>154</v>
       </c>
       <c r="B8" s="9">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C8" s="10">
         <v>30</v>
@@ -11844,16 +11840,16 @@
       </c>
     </row>
     <row r="10" spans="1:40" ht="16.5" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
     </row>
     <row r="11" spans="1:40">
       <c r="L11" s="37" t="s">
@@ -11882,7 +11878,7 @@
       <c r="AC11" s="38"/>
       <c r="AD11" s="38"/>
       <c r="AE11" s="39"/>
-      <c r="AF11" s="43"/>
+      <c r="AF11" s="24"/>
       <c r="AG11" s="37" t="s">
         <v>99</v>
       </c>
@@ -11918,7 +11914,7 @@
       <c r="AC12" s="41"/>
       <c r="AD12" s="41"/>
       <c r="AE12" s="42"/>
-      <c r="AF12" s="43"/>
+      <c r="AF12" s="24"/>
       <c r="AG12" s="40"/>
       <c r="AH12" s="41"/>
       <c r="AI12" s="41"/>
@@ -11934,30 +11930,30 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
+      <c r="AD14" s="43"/>
+      <c r="AE14" s="43"/>
+      <c r="AF14" s="43"/>
+      <c r="AG14" s="43"/>
     </row>
     <row r="16" spans="1:40">
       <c r="A16" t="s">
@@ -12024,7 +12020,7 @@
       <c r="U29" s="38"/>
       <c r="V29" s="38"/>
       <c r="W29" s="39"/>
-      <c r="X29" s="43"/>
+      <c r="X29" s="24"/>
       <c r="Y29" s="37" t="s">
         <v>98</v>
       </c>
@@ -12034,7 +12030,7 @@
       <c r="AC29" s="38"/>
       <c r="AD29" s="38"/>
       <c r="AE29" s="39"/>
-      <c r="AF29" s="43"/>
+      <c r="AF29" s="24"/>
       <c r="AG29" s="37" t="s">
         <v>102</v>
       </c>
@@ -12062,7 +12058,7 @@
       <c r="U30" s="41"/>
       <c r="V30" s="41"/>
       <c r="W30" s="42"/>
-      <c r="X30" s="43"/>
+      <c r="X30" s="24"/>
       <c r="Y30" s="40"/>
       <c r="Z30" s="41"/>
       <c r="AA30" s="41"/>
@@ -12070,7 +12066,7 @@
       <c r="AC30" s="41"/>
       <c r="AD30" s="41"/>
       <c r="AE30" s="42"/>
-      <c r="AF30" s="43"/>
+      <c r="AF30" s="24"/>
       <c r="AG30" s="40"/>
       <c r="AH30" s="41"/>
       <c r="AI30" s="41"/>
@@ -12081,28 +12077,32 @@
       <c r="AN30" s="42"/>
     </row>
     <row r="32" spans="1:40">
-      <c r="L32" s="36" t="s">
+      <c r="L32" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="L11:Q12"/>
     <mergeCell ref="L29:Q30"/>
     <mergeCell ref="R29:W30"/>
     <mergeCell ref="L32:AB32"/>
@@ -12112,10 +12112,6 @@
     <mergeCell ref="AG11:AN12"/>
     <mergeCell ref="AG29:AN30"/>
     <mergeCell ref="Y29:AE30"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="L11:Q12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
